--- a/PLR_do/bubble_data/bubble_data3.xlsx
+++ b/PLR_do/bubble_data/bubble_data3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D07A2F-78AE-4ADC-9F79-9142DE4A3434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E8024-2281-4DEA-93E4-5AFD0A3B5911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -470,16 +470,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C2" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.22</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.33600000000000002</v>
-      </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E12" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -488,16 +488,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.495</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="C3" s="2">
-        <v>0.22800000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.246</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E12" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -506,17 +506,17 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.378</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>0.23300000000000001</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.29699999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -524,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20699999999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.252</v>
+        <v>0.156</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -542,17 +542,17 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.27100000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>0.22900000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.249</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -560,17 +560,17 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.91800000000000004</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>0.54</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -578,17 +578,17 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.246</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20899999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D8" s="2">
-        <v>0.22700000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0.222</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.245</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -614,13 +614,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.82499999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="C10" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.26500000000000001</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -632,13 +632,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.57099999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="C11" s="2">
-        <v>0.219</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.35399999999999998</v>
+        <v>0.223</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -650,17 +650,17 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C12" s="2">
-        <v>0.219</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.22700000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
